--- a/Animals.xlsx
+++ b/Animals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Animal id</t>
   </si>
@@ -24,30 +24,6 @@
   </si>
   <si>
     <t>Animal weight</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Catlike</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>Zoro</t>
-  </si>
-  <si>
-    <t>1.40</t>
   </si>
 </sst>
 </file>
@@ -92,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -112,48 +88,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Animals.xlsx
+++ b/Animals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Animal id</t>
   </si>
@@ -24,6 +24,33 @@
   </si>
   <si>
     <t>Animal weight</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Catlike</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>Kity</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>Zizi</t>
+  </si>
+  <si>
+    <t>5.70</t>
   </si>
 </sst>
 </file>
@@ -68,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,6 +115,62 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
